--- a/input/vl/built_data/missing_values_percentaje_1719.xlsx
+++ b/input/vl/built_data/missing_values_percentaje_1719.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.302516499436604</v>
+        <v>4.705268509351671</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.307882169877126</v>
+        <v>4.711957830519359</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="13">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="14">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="15">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="17">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03112088855502495</v>
+        <v>0.03344660583843952</v>
       </c>
     </row>
     <row r="22">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="24">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="25">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="26">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="27">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="28">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="29">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="30">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="31">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="34">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="35">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="36">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="40">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.03326715673123357</v>
+        <v>0.03612233430551468</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="42">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="43">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="44">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="45">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="46">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="47">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="48">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="50">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="52">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="55">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="57">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="59">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="60">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.03219402264312926</v>
+        <v>0.0347844700719771</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="63">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="64">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="66">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="68">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="69">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="70">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="71">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="72">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="73">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="74">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="75">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="77">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="78">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="79">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="80">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="81">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="82">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="83">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="84">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="85">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="86">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="87">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="88">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="89">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="90">
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="91">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="92">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="93">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="94">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="95">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="96">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="97">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.08477759296024037</v>
+        <v>0.08829903941348032</v>
       </c>
     </row>
     <row r="98">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1534581745989161</v>
+        <v>0.1538543868568218</v>
       </c>
     </row>
     <row r="99">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1717014540966894</v>
+        <v>0.1752602145934231</v>
       </c>
     </row>
     <row r="100">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1802865268015238</v>
+        <v>0.1859631284617237</v>
       </c>
     </row>
     <row r="101">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1845790631539411</v>
+        <v>0.191314585395874</v>
       </c>
     </row>
     <row r="102">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1856521972420454</v>
+        <v>0.1926524496294116</v>
       </c>
     </row>
     <row r="103">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1856521972420454</v>
+        <v>0.1926524496294116</v>
       </c>
     </row>
     <row r="104">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1867253313301497</v>
+        <v>0.1939903138629492</v>
       </c>
     </row>
     <row r="105">
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1867253313301497</v>
+        <v>0.1939903138629492</v>
       </c>
     </row>
     <row r="106">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1920910017706712</v>
+        <v>0.2006796350306371</v>
       </c>
     </row>
     <row r="107">
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.1953104040349842</v>
+        <v>0.2046932277312498</v>
       </c>
     </row>
     <row r="108">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1674089177442721</v>
+        <v>0.1725844861263479</v>
       </c>
     </row>
     <row r="109">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9958684337607984</v>
+        <v>1.043534102159313</v>
       </c>
     </row>
     <row r="113">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9958684337607984</v>
+        <v>1.043534102159313</v>
       </c>
     </row>
     <row r="114">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.9958684337607984</v>
+        <v>1.043534102159313</v>
       </c>
     </row>
     <row r="115">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9958684337607984</v>
+        <v>1.043534102159313</v>
       </c>
     </row>
     <row r="116">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.885657562912486</v>
+        <v>2.172691515265031</v>
       </c>
     </row>
     <row r="117">
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.885657562912486</v>
+        <v>2.172691515265031</v>
       </c>
     </row>
     <row r="118">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2.868487417502817</v>
+        <v>3.170738233484066</v>
       </c>
     </row>
     <row r="122">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2.868487417502817</v>
+        <v>3.170738233484066</v>
       </c>
     </row>
     <row r="123">
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7.537693834844664</v>
+        <v>4.869825810076794</v>
       </c>
     </row>
     <row r="131">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1.171862424209905</v>
+        <v>1.336526369304043</v>
       </c>
     </row>
     <row r="139">
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7.537693834844664</v>
+        <v>4.869825810076794</v>
       </c>
     </row>
     <row r="160">
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>7.929387777002736</v>
+        <v>9.105503973456774</v>
       </c>
     </row>
     <row r="176">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>7.926168374738424</v>
+        <v>9.101490380756161</v>
       </c>
     </row>
     <row r="177">

--- a/input/vl/built_data/missing_values_percentaje_1719.xlsx
+++ b/input/vl/built_data/missing_values_percentaje_1719.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2301,6 +2301,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>n_personas_hogar</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/input/vl/built_data/missing_values_percentaje_1719.xlsx
+++ b/input/vl/built_data/missing_values_percentaje_1719.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03603047148445542</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.705268509351671</v>
+        <v>4.805564134239242</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.711957830519359</v>
+        <v>4.811354745727815</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="13">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="14">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="15">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="17">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03344660583843952</v>
+        <v>0.03538707020794729</v>
       </c>
     </row>
     <row r="22">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="24">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="25">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="26">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="27">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="28">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="29">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="30">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="31">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="34">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="35">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="36">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="40">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.03612233430551468</v>
+        <v>0.03989087914350422</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="42">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="43">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="44">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="45">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="46">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="47">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="48">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="50">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="52">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.05790611488573193</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="55">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="57">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="59">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="60">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0347844700719771</v>
+        <v>0.03924747786699609</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="63">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="64">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="66">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="68">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="69">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="70">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="71">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1087348157298744</v>
       </c>
     </row>
     <row r="72">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="73">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="74">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="75">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="77">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="78">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="79">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="80">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="81">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="82">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="83">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="84">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="85">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="86">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="87">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="88">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="89">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="90">
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="91">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="92">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="93">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="94">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="95">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="96">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="97">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.08829903941348032</v>
+        <v>0.1074480131768581</v>
       </c>
     </row>
     <row r="98">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1538543868568218</v>
+        <v>0.1878731727403747</v>
       </c>
     </row>
     <row r="99">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1752602145934231</v>
+        <v>0.2110356186946675</v>
       </c>
     </row>
     <row r="100">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1859631284617237</v>
+        <v>0.2213300391187976</v>
       </c>
     </row>
     <row r="101">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.191314585395874</v>
+        <v>0.2245470455013383</v>
       </c>
     </row>
     <row r="102">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1926524496294116</v>
+        <v>0.2258338480543546</v>
       </c>
     </row>
     <row r="103">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1926524496294116</v>
+        <v>0.2258338480543546</v>
       </c>
     </row>
     <row r="104">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1939903138629492</v>
+        <v>0.2258338480543546</v>
       </c>
     </row>
     <row r="105">
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1939903138629492</v>
+        <v>0.2264772493308627</v>
       </c>
     </row>
     <row r="106">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.2006796350306371</v>
+        <v>0.2303376569899115</v>
       </c>
     </row>
     <row r="107">
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.2046932277312498</v>
+        <v>0.2348414659254684</v>
       </c>
     </row>
     <row r="108">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1725844861263479</v>
+        <v>0.1659975293390982</v>
       </c>
     </row>
     <row r="109">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1.043534102159313</v>
+        <v>1.015930615606341</v>
       </c>
     </row>
     <row r="113">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.043534102159313</v>
+        <v>1.015930615606341</v>
       </c>
     </row>
     <row r="114">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.043534102159313</v>
+        <v>1.015930615606341</v>
       </c>
     </row>
     <row r="115">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1.043534102159313</v>
+        <v>1.015930615606341</v>
       </c>
     </row>
     <row r="116">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.172691515265031</v>
+        <v>2.071752110356187</v>
       </c>
     </row>
     <row r="117">
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.172691515265031</v>
+        <v>2.071752110356187</v>
       </c>
     </row>
     <row r="118">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3.170738233484066</v>
+        <v>3.237595223388924</v>
       </c>
     </row>
     <row r="122">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3.170738233484066</v>
+        <v>3.237595223388924</v>
       </c>
     </row>
     <row r="123">
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.869825810076794</v>
+        <v>4.848028618488779</v>
       </c>
     </row>
     <row r="131">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1.336526369304043</v>
+        <v>1.311895202800082</v>
       </c>
     </row>
     <row r="139">
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1.598852172122709</v>
       </c>
     </row>
     <row r="159">
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4.869825810076794</v>
+        <v>4.848028618488779</v>
       </c>
     </row>
     <row r="160">
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>9.105503973456774</v>
+        <v>8.731598723491867</v>
       </c>
     </row>
     <row r="176">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>9.101490380756161</v>
+        <v>8.729668519662342</v>
       </c>
     </row>
     <row r="177">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>51.90832818612312</v>
       </c>
     </row>
     <row r="187">
@@ -2304,10 +2304,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>ipc_lima_2018</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>48.09167181387688</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>n_personas_hogar</t>
         </is>
       </c>
-      <c r="B189" t="n">
+      <c r="B190" t="n">
         <v>0</v>
       </c>
     </row>
